--- a/src/spreadsheets/node.xlsx
+++ b/src/spreadsheets/node.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\developers-cheat-sheet\src\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF31583-C585-4568-80F5-A23E7D9E1B48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EA0FC1-DBAA-45C4-AF29-F8BA785D321D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{AC50BE90-470E-4ADB-ABB4-54CE8C3071A4}"/>
   </bookViews>
@@ -41,20 +41,6 @@
     <t>Command(s)</t>
   </si>
   <si>
-    <r>
-      <t>Install/add dependencies in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>package.json</t>
-    </r>
-  </si>
-  <si>
     <t>Run scripts defined in package.json</t>
   </si>
   <si>
@@ -83,12 +69,15 @@
 npm install --production
 npm install --save-dev &lt;some-module&gt;</t>
   </si>
+  <si>
+    <t>Install/add dependencies in package.json</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,12 +92,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF24292E"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -454,7 +437,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,34 +456,34 @@
     </row>
     <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
